--- a/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
+++ b/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
@@ -345,14 +345,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>articulate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>perennial</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>adj. 多年生的；常年的；四季不断的；常在的；反复的</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>crux</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>n. 关键；难题；十字架形，坩埚</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>aggregation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>n. [地质][数] 聚合，聚集；聚集体，集合体</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
+++ b/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,43 +356,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>articulate</t>
+          <t>hi</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
-          <t>perennial</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>adj. 多年生的；常年的；四季不断的；常在的；反复的</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>crux</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>n. 关键；难题；十字架形，坩埚</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>aggregation</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>n. [地质][数] 聚合，聚集；聚集体，集合体</t>
+          <t>int. 嗨！（表示问候或用以唤起注意）</t>
         </is>
       </c>
     </row>

--- a/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
+++ b/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="RemV_ErrorBook" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Book" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,12 +356,103 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>int. 嗨！（表示问候或用以唤起注意）</t>
+          <t>int. 喂；哈罗，你好，您好</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>My name</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>我的名字</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>n. 苹果，苹果树，苹果似的东西；[美俚]炸弹，手榴弹，（棒球的）球；[美俚]人，家伙。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>banaa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NO MEANING FOUND</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>symb. 碳 (carbon)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>n. 巨蟒；大蟒</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>java</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>n. （非正式）咖啡</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中英</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>fluoridation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>n. 加氟作用；氟化反应</t>
         </is>
       </c>
     </row>

--- a/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
+++ b/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
@@ -1,34 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armand\PycharmProjects\RemV\PyQt5_GUI\RemV_Package\lib\res\word_Repository\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726B506A-D5B6-4958-AB86-288F2CB8C0BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Book" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RemV_ErrorBook" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -44,15 +59,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -340,123 +364,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>int. 喂；哈罗，你好，您好</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>My name</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>我的名字</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>apple</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>n. 苹果，苹果树，苹果似的东西；[美俚]炸弹，手榴弹，（棒球的）球；[美俚]人，家伙。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>banaa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>NO MEANING FOUND</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>symb. 碳 (carbon)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>python</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>n. 巨蟒；大蟒</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>java</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>n. （非正式）咖啡</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中英</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>fluoridation</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>n. 加氟作用；氟化反应</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
+++ b/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
@@ -1,49 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armand\PycharmProjects\RemV\PyQt5_GUI\RemV_Package\lib\res\word_Repository\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726B506A-D5B6-4958-AB86-288F2CB8C0BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="RemV_ErrorBook" sheetId="1" r:id="rId1"/>
+    <sheet name="RemV_ErrorBook" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,24 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -364,17 +340,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
+++ b/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
@@ -345,14 +345,39 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tissue</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>n. 组织；纸巾；薄纱；一套</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>cap</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>n. 盖；帽子</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
+++ b/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
@@ -1,34 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armand\PycharmProjects\RemV\PyQt5_GUI\RemV_Package\lib\res\word_Repository\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA4D915-399A-4695-AC7B-87C63783D1B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RemV_ErrorBook" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RemV_ErrorBook" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -44,15 +59,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -340,44 +364,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="M227" sqref="M227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>tissue</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>n. 组织；纸巾；薄纱；一套</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>cap</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>n. 盖；帽子</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
+++ b/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
@@ -1,49 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armand\PycharmProjects\RemV\PyQt5_GUI\RemV_Package\lib\res\word_Repository\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA4D915-399A-4695-AC7B-87C63783D1B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="RemV_ErrorBook" sheetId="1" r:id="rId1"/>
+    <sheet name="RemV_ErrorBook" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,24 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -364,17 +340,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="M227" sqref="M227"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
+++ b/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
@@ -1,34 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armand\PycharmProjects\RemV\PyQt5_GUI\RemV_Package\lib\res\word_Repository\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFC58C9-B8D4-45D2-9AFA-18B67ABAD68F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RemV_ErrorBook" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Book" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -44,15 +59,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -340,19 +364,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
+++ b/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
@@ -1,49 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armand\PycharmProjects\RemV\PyQt5_GUI\RemV_Package\lib\res\word_Repository\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFC58C9-B8D4-45D2-9AFA-18B67ABAD68F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Book" sheetId="1" r:id="rId1"/>
+    <sheet name="RemV_ErrorBook" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,24 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -364,17 +340,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
+++ b/PyQt5_GUI/RemV_Package/lib/res/word_Repository/ErrorBook.xlsx
@@ -1,34 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armand\PycharmProjects\RemV\PyQt5_GUI\RemV_Package\lib\res\word_Repository\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372F8B53-CAEA-4EDA-B261-7062B7AEB20E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RemV_ErrorBook" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RemV_ErrorBook" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -44,15 +59,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -340,19 +364,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>